--- a/docs/CareConnect-Procedure-1.xlsx
+++ b/docs/CareConnect-Procedure-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3385" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3385" uniqueCount="498">
   <si>
     <t>Path</t>
   </si>
@@ -825,6 +825,12 @@
   <si>
     <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-coding-sctdescid}
 </t>
+  </si>
+  <si>
+    <t>The SNOMED CT Description ID for the display</t>
+  </si>
+  <si>
+    <t>The SNOMED CT Description ID for the display.</t>
   </si>
   <si>
     <t>Procedure.code.coding.system</t>
@@ -5447,10 +5453,10 @@
         <v>257</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>94</v>
+        <v>258</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>95</v>
+        <v>259</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5516,7 +5522,7 @@
         <v>39</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>39</v>
@@ -5527,7 +5533,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5553,23 +5559,23 @@
         <v>61</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="R36" t="s" s="2">
         <v>39</v>
@@ -5611,7 +5617,7 @@
         <v>39</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>40</v>
@@ -5626,18 +5632,18 @@
         <v>39</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5663,13 +5669,13 @@
         <v>120</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5719,7 +5725,7 @@
         <v>39</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>40</v>
@@ -5734,18 +5740,18 @@
         <v>39</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5771,14 +5777,14 @@
         <v>67</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>39</v>
@@ -5827,7 +5833,7 @@
         <v>39</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>40</v>
@@ -5842,18 +5848,18 @@
         <v>39</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5879,14 +5885,14 @@
         <v>120</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>39</v>
@@ -5935,7 +5941,7 @@
         <v>39</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>40</v>
@@ -5950,18 +5956,18 @@
         <v>39</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5987,16 +5993,16 @@
         <v>208</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>39</v>
@@ -6045,7 +6051,7 @@
         <v>39</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>40</v>
@@ -6060,18 +6066,18 @@
         <v>39</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6097,16 +6103,16 @@
         <v>120</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>39</v>
@@ -6155,7 +6161,7 @@
         <v>39</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>40</v>
@@ -6170,22 +6176,22 @@
         <v>39</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6204,13 +6210,13 @@
         <v>49</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6261,7 +6267,7 @@
         <v>39</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>48</v>
@@ -6276,22 +6282,22 @@
         <v>39</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6310,13 +6316,13 @@
         <v>49</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6367,7 +6373,7 @@
         <v>39</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>40</v>
@@ -6382,18 +6388,18 @@
         <v>39</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6416,13 +6422,13 @@
         <v>49</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6473,7 +6479,7 @@
         <v>39</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>40</v>
@@ -6488,18 +6494,18 @@
         <v>39</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6522,13 +6528,13 @@
         <v>49</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6579,7 +6585,7 @@
         <v>39</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>40</v>
@@ -6591,10 +6597,10 @@
         <v>39</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>39</v>
@@ -6605,7 +6611,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6711,7 +6717,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6819,11 +6825,11 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -6848,7 +6854,7 @@
         <v>107</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>109</v>
@@ -6901,7 +6907,7 @@
         <v>39</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>40</v>
@@ -6927,7 +6933,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6953,10 +6959,10 @@
         <v>141</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6986,10 +6992,10 @@
         <v>217</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>39</v>
@@ -7007,7 +7013,7 @@
         <v>39</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>40</v>
@@ -7022,18 +7028,18 @@
         <v>39</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7056,17 +7062,17 @@
         <v>49</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>39</v>
@@ -7115,7 +7121,7 @@
         <v>39</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>48</v>
@@ -7130,18 +7136,18 @@
         <v>39</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7167,14 +7173,14 @@
         <v>174</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>39</v>
@@ -7223,7 +7229,7 @@
         <v>39</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>40</v>
@@ -7238,7 +7244,7 @@
         <v>39</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>39</v>
@@ -7249,7 +7255,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7272,17 +7278,17 @@
         <v>49</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>39</v>
@@ -7331,7 +7337,7 @@
         <v>39</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>40</v>
@@ -7346,10 +7352,10 @@
         <v>39</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>39</v>
@@ -7357,7 +7363,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7383,10 +7389,10 @@
         <v>141</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7416,10 +7422,10 @@
         <v>217</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>39</v>
@@ -7437,7 +7443,7 @@
         <v>39</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>40</v>
@@ -7452,10 +7458,10 @@
         <v>39</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>39</v>
@@ -7463,7 +7469,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7486,16 +7492,16 @@
         <v>49</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7545,7 +7551,7 @@
         <v>39</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>40</v>
@@ -7560,10 +7566,10 @@
         <v>39</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>39</v>
@@ -7571,7 +7577,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7597,10 +7603,10 @@
         <v>141</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7630,10 +7636,10 @@
         <v>217</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>39</v>
@@ -7651,7 +7657,7 @@
         <v>39</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>40</v>
@@ -7666,18 +7672,18 @@
         <v>39</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7783,7 +7789,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7891,7 +7897,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7999,7 +8005,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>251</v>
@@ -8067,7 +8073,7 @@
         <v>252</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>39</v>
@@ -8111,7 +8117,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8217,7 +8223,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8323,7 +8329,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>256</v>
@@ -8351,10 +8357,10 @@
         <v>257</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>94</v>
+        <v>258</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>95</v>
+        <v>259</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8420,7 +8426,7 @@
         <v>39</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>39</v>
@@ -8431,7 +8437,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8457,23 +8463,23 @@
         <v>61</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="R63" t="s" s="2">
         <v>39</v>
@@ -8515,7 +8521,7 @@
         <v>39</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>40</v>
@@ -8530,18 +8536,18 @@
         <v>39</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8567,13 +8573,13 @@
         <v>120</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8623,7 +8629,7 @@
         <v>39</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>40</v>
@@ -8638,18 +8644,18 @@
         <v>39</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8675,14 +8681,14 @@
         <v>67</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>39</v>
@@ -8731,7 +8737,7 @@
         <v>39</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>40</v>
@@ -8746,18 +8752,18 @@
         <v>39</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8783,14 +8789,14 @@
         <v>120</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>39</v>
@@ -8839,7 +8845,7 @@
         <v>39</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>40</v>
@@ -8854,18 +8860,18 @@
         <v>39</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8891,16 +8897,16 @@
         <v>208</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>39</v>
@@ -8949,7 +8955,7 @@
         <v>39</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>40</v>
@@ -8964,18 +8970,18 @@
         <v>39</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9001,16 +9007,16 @@
         <v>120</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>39</v>
@@ -9059,7 +9065,7 @@
         <v>39</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>40</v>
@@ -9074,18 +9080,18 @@
         <v>39</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9111,13 +9117,13 @@
         <v>141</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -9146,10 +9152,10 @@
         <v>217</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>39</v>
@@ -9167,7 +9173,7 @@
         <v>39</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>40</v>
@@ -9182,7 +9188,7 @@
         <v>39</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>39</v>
@@ -9193,7 +9199,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9216,16 +9222,16 @@
         <v>39</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -9275,7 +9281,7 @@
         <v>39</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>40</v>
@@ -9290,7 +9296,7 @@
         <v>39</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>39</v>
@@ -9301,7 +9307,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9327,13 +9333,13 @@
         <v>141</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -9362,10 +9368,10 @@
         <v>217</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>39</v>
@@ -9383,7 +9389,7 @@
         <v>39</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>40</v>
@@ -9398,7 +9404,7 @@
         <v>39</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>39</v>
@@ -9409,7 +9415,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9515,7 +9521,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9623,7 +9629,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9731,7 +9737,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>251</v>
@@ -9799,7 +9805,7 @@
         <v>252</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>39</v>
@@ -9843,7 +9849,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9949,7 +9955,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10055,7 +10061,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>256</v>
@@ -10083,10 +10089,10 @@
         <v>257</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>94</v>
+        <v>258</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>95</v>
+        <v>259</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -10152,7 +10158,7 @@
         <v>39</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>39</v>
@@ -10163,7 +10169,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10189,23 +10195,23 @@
         <v>61</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P79" s="2"/>
       <c r="Q79" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="R79" t="s" s="2">
         <v>39</v>
@@ -10247,7 +10253,7 @@
         <v>39</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>40</v>
@@ -10262,18 +10268,18 @@
         <v>39</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10299,13 +10305,13 @@
         <v>120</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -10355,7 +10361,7 @@
         <v>39</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>40</v>
@@ -10370,18 +10376,18 @@
         <v>39</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10407,14 +10413,14 @@
         <v>67</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>39</v>
@@ -10463,7 +10469,7 @@
         <v>39</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>40</v>
@@ -10478,18 +10484,18 @@
         <v>39</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10515,14 +10521,14 @@
         <v>120</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>39</v>
@@ -10571,7 +10577,7 @@
         <v>39</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>40</v>
@@ -10586,18 +10592,18 @@
         <v>39</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10623,16 +10629,16 @@
         <v>208</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>39</v>
@@ -10681,7 +10687,7 @@
         <v>39</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>40</v>
@@ -10696,18 +10702,18 @@
         <v>39</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10733,16 +10739,16 @@
         <v>120</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>39</v>
@@ -10791,7 +10797,7 @@
         <v>39</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>40</v>
@@ -10806,18 +10812,18 @@
         <v>39</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10840,17 +10846,17 @@
         <v>39</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>39</v>
@@ -10899,7 +10905,7 @@
         <v>39</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>40</v>
@@ -10914,7 +10920,7 @@
         <v>39</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>39</v>
@@ -10925,7 +10931,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10951,10 +10957,10 @@
         <v>141</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -10984,10 +10990,10 @@
         <v>217</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>39</v>
@@ -11005,7 +11011,7 @@
         <v>39</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>40</v>
@@ -11020,7 +11026,7 @@
         <v>39</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>39</v>
@@ -11031,7 +11037,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11054,13 +11060,13 @@
         <v>39</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -11111,7 +11117,7 @@
         <v>39</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>40</v>
@@ -11126,18 +11132,18 @@
         <v>39</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11243,7 +11249,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11351,7 +11357,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11374,13 +11380,13 @@
         <v>49</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -11431,7 +11437,7 @@
         <v>39</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>40</v>
@@ -11446,7 +11452,7 @@
         <v>39</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>39</v>
@@ -11457,7 +11463,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11480,13 +11486,13 @@
         <v>49</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -11537,7 +11543,7 @@
         <v>39</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>40</v>
@@ -11552,7 +11558,7 @@
         <v>39</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>39</v>
@@ -11563,7 +11569,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11589,10 +11595,10 @@
         <v>120</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -11643,7 +11649,7 @@
         <v>39</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>48</v>
@@ -11658,7 +11664,7 @@
         <v>39</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>39</v>
@@ -11669,7 +11675,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -11692,13 +11698,13 @@
         <v>39</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -11749,7 +11755,7 @@
         <v>39</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>40</v>
@@ -11761,10 +11767,10 @@
         <v>39</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>39</v>
@@ -11775,7 +11781,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -11881,7 +11887,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -11989,11 +11995,11 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
@@ -12018,7 +12024,7 @@
         <v>107</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="M96" t="s" s="2">
         <v>109</v>
@@ -12071,7 +12077,7 @@
         <v>39</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>40</v>
@@ -12097,7 +12103,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12123,10 +12129,10 @@
         <v>141</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -12156,10 +12162,10 @@
         <v>234</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>39</v>
@@ -12177,7 +12183,7 @@
         <v>39</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>40</v>
@@ -12192,7 +12198,7 @@
         <v>39</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>39</v>
@@ -12203,7 +12209,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12226,13 +12232,13 @@
         <v>39</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -12283,7 +12289,7 @@
         <v>39</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>48</v>
@@ -12298,7 +12304,7 @@
         <v>39</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>39</v>
@@ -12309,7 +12315,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -12332,19 +12338,19 @@
         <v>39</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>39</v>
@@ -12393,7 +12399,7 @@
         <v>39</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>40</v>
@@ -12408,7 +12414,7 @@
         <v>39</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>39</v>
@@ -12419,7 +12425,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -12445,13 +12451,13 @@
         <v>141</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
@@ -12480,10 +12486,10 @@
         <v>217</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="Z100" t="s" s="2">
         <v>39</v>
@@ -12501,7 +12507,7 @@
         <v>39</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>40</v>
@@ -12516,7 +12522,7 @@
         <v>39</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>39</v>

--- a/docs/CareConnect-Procedure-1.xlsx
+++ b/docs/CareConnect-Procedure-1.xlsx
@@ -1721,15 +1721,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.96484375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.9609375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="22.59765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.62109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.7421875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="83.1484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1742,19 +1742,19 @@
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.56640625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="63.4921875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="136.75" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="22.03125" customWidth="true" bestFit="true"/>

--- a/docs/CareConnect-Procedure-1.xlsx
+++ b/docs/CareConnect-Procedure-1.xlsx
@@ -1721,15 +1721,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.9609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.96484375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="22.59765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.62109375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.7421875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="83.1484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1742,19 +1742,19 @@
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.56640625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="63.4921875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="136.75" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="22.03125" customWidth="true" bestFit="true"/>
